--- a/Data Dictionary_Bank Marketing Data Set.xlsx
+++ b/Data Dictionary_Bank Marketing Data Set.xlsx
@@ -16,14 +16,14 @@
     <sheet name="Description of Fields" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Attributes'!$B$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Data Attributes'!$A$1:$H$23</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="87">
   <si>
     <t>Element or value display name</t>
   </si>
@@ -44,20 +44,6 @@
   </si>
   <si>
     <t>Explanation of column headers:</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Spreadsheet tab: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>If your spreadsheet has multiple tabs, identify the tab you are describing.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -364,6 +350,40 @@
   </si>
   <si>
     <t xml:space="preserve">|'no'|'yes'| </t>
+  </si>
+  <si>
+    <t>Accepts null value?</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Additional contextual details relivant to the data element.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Attribute Type: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>A specification that defines a property of the element or object.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1255,10 +1275,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1269,11 +1289,12 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="41" style="7" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>0</v>
@@ -1282,7 +1303,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>2</v>
@@ -1293,456 +1314,525 @@
       <c r="G1" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F3">
         <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F4">
         <v>8</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F5">
         <v>19</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="6"/>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6">
         <v>7</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7">
         <v>7</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="H8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F9">
         <v>9</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="H9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="H10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" s="6"/>
       <c r="E11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>3</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>4</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>6</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F20">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F21">
         <v>4</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23">
         <v>3</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="H23" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:G1"/>
+  <autoFilter ref="A1:H23"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1771,47 +1861,52 @@
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="30" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="30" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Data Dictionary_Bank Marketing Data Set.xlsx
+++ b/Data Dictionary_Bank Marketing Data Set.xlsx
@@ -359,20 +359,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Notes: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Additional contextual details relivant to the data element.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Attribute Type: </t>
     </r>
     <r>
@@ -383,6 +369,20 @@
         <family val="2"/>
       </rPr>
       <t>A specification that defines a property of the element or object.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Notes: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Additional contextual details relevant to the data element.</t>
     </r>
   </si>
 </sst>
@@ -1832,7 +1832,7 @@
   <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1861,7 +1861,7 @@
     </row>
     <row r="6" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1876,7 +1876,7 @@
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
